--- a/PCB/PCB_BOM.xlsx
+++ b/PCB/PCB_BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
   <si>
     <t>C1, C6</t>
   </si>
@@ -117,30 +117,18 @@
     <t>Chip resistor</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>RC0805</t>
   </si>
   <si>
     <t>R2, R5</t>
   </si>
   <si>
-    <t>10K</t>
-  </si>
-  <si>
     <t>R3</t>
   </si>
   <si>
-    <t>330</t>
-  </si>
-  <si>
     <t>R4</t>
   </si>
   <si>
-    <t>4.7K</t>
-  </si>
-  <si>
     <t>TEST1</t>
   </si>
   <si>
@@ -202,6 +190,12 @@
   </si>
   <si>
     <t>Programming connector</t>
+  </si>
+  <si>
+    <t>47k</t>
+  </si>
+  <si>
+    <t>10k</t>
   </si>
 </sst>
 </file>
@@ -299,7 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -349,6 +343,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -654,7 +652,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,28 +661,28 @@
     <col min="2" max="2" width="9.109375" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="23.21875" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="18" customWidth="1"/>
     <col min="6" max="6" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -700,7 +698,7 @@
       <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="12" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="8" t="s">
@@ -720,7 +718,7 @@
       <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="11" t="s">
@@ -740,7 +738,7 @@
       <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -760,7 +758,7 @@
       <c r="D5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="11" t="s">
@@ -780,7 +778,7 @@
       <c r="D6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="8" t="s">
@@ -798,7 +796,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="13" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="11" t="s">
@@ -816,7 +814,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="12"/>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="8" t="s">
@@ -836,11 +834,11 @@
       <c r="D9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -856,7 +854,7 @@
       <c r="D10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="8" t="s">
@@ -876,7 +874,7 @@
       <c r="D11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="11" t="s">
@@ -896,7 +894,7 @@
       <c r="D12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="8"/>
@@ -914,7 +912,7 @@
       <c r="D13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
       <c r="F13" s="11" t="s">
@@ -932,10 +930,10 @@
         <v>31</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="8" t="s">
         <v>33</v>
+      </c>
+      <c r="E14" s="12">
+        <v>100</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>32</v>
@@ -949,13 +947,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>32</v>
@@ -969,13 +967,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="E16" s="12">
+        <v>330</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>32</v>
@@ -989,13 +987,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>32</v>
@@ -1009,13 +1007,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>42</v>
+      <c r="E18" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>15</v>
@@ -1029,13 +1027,13 @@
         <v>1</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>43</v>
+      <c r="E19" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>15</v>
@@ -1049,16 +1047,16 @@
         <v>1</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1069,16 +1067,16 @@
         <v>1</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1089,16 +1087,16 @@
         <v>1</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
